--- a/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
+++ b/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
@@ -12,12 +12,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Eternus)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Eternus)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Eternus)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Eternus)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="280">
   <si>
     <t>共通設定</t>
   </si>
@@ -782,6 +786,272 @@
     <rPh sb="6" eb="8">
       <t>コウセイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* Fujitsu ETERNUS ストレージの構成情報を採取します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* .\template\FJ_Eternus が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\FJ_Eternus\ETERNUSチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Eternus を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検査対象ストレージ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検査対象ストレージのIPを入力します。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Eternus を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象ストレージ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>eternus1</t>
+  </si>
+  <si>
+    <t>10.20.2.52</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\FJ_Eternus\config_eternus.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>// Eternus 接続情報</t>
+  </si>
+  <si>
+    <t>account.Eternus.Test.user      = 'root'</t>
+  </si>
+  <si>
+    <t>account.Eternus.Test.password  = 'root'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\FJ_Eternus\config_eternus.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -795,7 +1065,7 @@
     <numFmt numFmtId="178" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -857,8 +1127,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,8 +1172,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -986,8 +1269,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,8 +1409,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,8 +1483,59 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="パーセント" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="桁区切り" xfId="2" builtinId="6" customBuiltin="1"/>
     <cellStyle name="桁区切り [0.00]" xfId="1" builtinId="3" customBuiltin="1"/>
@@ -1086,6 +1543,8 @@
     <cellStyle name="通貨" xfId="4" builtinId="7" customBuiltin="1"/>
     <cellStyle name="通貨 [0.00]" xfId="3" builtinId="4" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 10" xfId="8"/>
+    <cellStyle name="標準 2" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1398,9 +1857,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.375" style="22" customWidth="1"/>
+    <col min="3" max="9" width="16.125" style="22" customWidth="1"/>
+    <col min="10" max="1020" width="9" style="22" customWidth="1"/>
+    <col min="1021" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C17" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C21" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C22" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B29" s="26">
+        <v>1</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B30" s="26">
+        <v>2</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B31" s="26">
+        <v>3</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="26">
+        <v>4</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="26">
+        <v>5</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B34" s="26">
+        <v>6</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B35" s="26">
+        <v>7</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="26">
+        <v>8</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B37" s="26">
+        <v>9</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B38" s="26">
+        <v>10</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B42" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C44" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C48" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="32"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="35"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C50" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="35"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C51" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="38"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B55" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C57" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="29"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C63" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="29"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C68" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="29"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C72" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C26:I26"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1735,7 +2955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
@@ -2050,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -2141,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
@@ -3704,7 +4924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>

--- a/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
+++ b/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
@@ -1135,7 +1135,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1176,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1416,7 +1422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,22 +1486,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="7" applyFill="1" applyBorder="1">
@@ -1532,6 +1523,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="8" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1860,747 +1869,1402 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="22" customWidth="1"/>
-    <col min="3" max="9" width="16.125" style="22" customWidth="1"/>
-    <col min="10" max="1020" width="9" style="22" customWidth="1"/>
-    <col min="1021" max="16384" width="9" style="22"/>
+    <col min="1" max="2" width="3.375" style="21" customWidth="1"/>
+    <col min="3" max="9" width="16.125" style="21" customWidth="1"/>
+    <col min="10" max="1020" width="9" style="21" customWidth="1"/>
+    <col min="1021" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="22" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="22" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="22" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C16" s="22" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C17" s="22" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C18" s="22" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C19" s="22" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C20" s="22" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C21" s="22" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C22" s="22" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="22" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="35"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="24" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="35"/>
+      <c r="B28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="26">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="35"/>
+      <c r="B29" s="39">
         <v>1</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="26">
+      <c r="G29" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="35"/>
+      <c r="B30" s="39">
         <v>2</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="26">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="35"/>
+      <c r="B31" s="39">
         <v>3</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="26">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="35"/>
+      <c r="B32" s="39">
         <v>4</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="26">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="35"/>
+      <c r="B33" s="39">
         <v>5</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B34" s="26">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="35"/>
+      <c r="B34" s="39">
         <v>6</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B35" s="26">
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="35"/>
+      <c r="B35" s="39">
         <v>7</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="26">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="35"/>
+      <c r="B36" s="39">
         <v>8</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B37" s="26">
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="35"/>
+      <c r="B37" s="39">
         <v>9</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="26">
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="35"/>
+      <c r="B38" s="39">
         <v>10</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="35" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="22" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C44" s="27" t="s">
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="22" t="s">
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C48" s="30" t="s">
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="32"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="35"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C50" s="33" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="35"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="35"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="35"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C51" s="36" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="35"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="38"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="22" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="35"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="35" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B55" s="22" t="s">
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C57" s="27" t="s">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="29"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="22" t="s">
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="35"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="35" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B61" s="22" t="s">
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C63" s="27" t="s">
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="29"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" s="22" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="35"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B66" s="22" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C68" s="27" t="s">
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="29"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="22" t="s">
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="35"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="27" t="s">
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="29"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="35"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2633,15 +3297,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>

--- a/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
+++ b/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="278">
   <si>
     <t>共通設定</t>
   </si>
@@ -642,21 +642,6 @@
   </si>
   <si>
     <t>snmp_trap:k</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>10.20.5.1</t>
-  </si>
-  <si>
-    <t>public</t>
   </si>
   <si>
     <t>subsystem_parameters</t>
@@ -1052,6 +1037,18 @@
   </si>
   <si>
     <t>getconfig -u db</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>net_subnet</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1422,7 +1419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,9 +1461,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1525,9 +1519,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="7" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1537,10 +1528,22 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,1400 +1874,1400 @@
   </sheetPr>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="21" customWidth="1"/>
-    <col min="3" max="9" width="16.125" style="21" customWidth="1"/>
-    <col min="10" max="1020" width="9" style="21" customWidth="1"/>
-    <col min="1021" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="3.375" style="20" customWidth="1"/>
+    <col min="3" max="9" width="16.125" style="20" customWidth="1"/>
+    <col min="10" max="1020" width="9" style="20" customWidth="1"/>
+    <col min="1021" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35" t="s">
+      <c r="D27" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="36">
+        <v>1</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="E29" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35" t="s">
+      <c r="F29" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="36">
+        <v>2</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="36">
+        <v>3</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="36">
+        <v>4</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="36">
+        <v>5</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="36">
+        <v>6</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="36">
+        <v>7</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="36">
+        <v>8</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="36">
+        <v>9</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="36">
+        <v>10</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="39">
-        <v>1</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="33"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="39">
-        <v>2</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="39">
-        <v>3</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="39">
-        <v>4</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="39">
-        <v>5</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="39">
-        <v>6</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="39">
-        <v>7</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="39">
-        <v>8</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="39">
-        <v>9</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="39">
-        <v>10</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="35" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="33"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="33"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="33"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="22" t="s">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="33"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35" t="s">
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="25" t="s">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="35"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="35"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="28" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="33"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="31" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="35" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="33"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="22" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="35"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="33"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="22" t="s">
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="35"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="35"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="35"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="33"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3297,15 +3300,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3624,7 +3627,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3693,11 +3696,11 @@
       <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>237</v>
+      <c r="I3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>26</v>
@@ -3738,51 +3741,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="I6" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="39" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
@@ -3815,109 +3824,109 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -4789,11 +4798,11 @@
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>224</v>
+      <c r="B48" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>16</v>
@@ -4801,19 +4810,19 @@
       <c r="E48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>224</v>
+      <c r="F48" s="16" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>225</v>
+      <c r="B49" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>16</v>
@@ -4821,8 +4830,8 @@
       <c r="E49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>225</v>
+      <c r="F49" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4890,10 +4899,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>16</v>
@@ -4902,7 +4911,7 @@
         <v>49</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4930,11 +4939,11 @@
         <v>49</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="D55" s="5" t="s">
         <v>16</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4989,11 +4998,11 @@
       <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>214</v>
+      <c r="B58" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>16</v>
@@ -5001,19 +5010,19 @@
       <c r="E58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>214</v>
+      <c r="F58" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>213</v>
+      <c r="B59" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>16</v>
@@ -5021,8 +5030,8 @@
       <c r="E59" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>213</v>
+      <c r="F59" s="17" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5066,35 +5075,35 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>234</v>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18" t="s">
-        <v>234</v>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>235</v>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18" t="s">
-        <v>235</v>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5122,10 +5131,10 @@
         <v>49</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>16</v>
@@ -5134,7 +5143,7 @@
         <v>49</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5219,11 +5228,11 @@
       <c r="A70" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>227</v>
+      <c r="B70" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>16</v>
@@ -5231,8 +5240,8 @@
       <c r="E70" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>227</v>
+      <c r="F70" s="17" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5280,7 +5289,7 @@
         <v>49</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>172</v>
@@ -5498,10 +5507,10 @@
         <v>49</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>16</v>
@@ -5510,7 +5519,7 @@
         <v>49</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5518,10 +5527,10 @@
         <v>49</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>16</v>
@@ -5530,7 +5539,7 @@
         <v>49</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5538,10 +5547,10 @@
         <v>49</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>16</v>
@@ -5550,7 +5559,7 @@
         <v>49</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5558,10 +5567,10 @@
         <v>49</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>16</v>
@@ -5570,7 +5579,7 @@
         <v>49</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5592,9 +5601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5638,15 +5645,9 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>204</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -5655,9 +5656,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -5666,9 +5665,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">

--- a/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
+++ b/template/FJ_Eternus/blank_ETERNUSチェックシート.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="利用手順" sheetId="7" r:id="rId1"/>
     <sheet name="検査対象" sheetId="1" r:id="rId2"/>
     <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
     <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="285">
   <si>
     <t>共通設定</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Eternus</t>
+  </si>
+  <si>
+    <t>eternus1</t>
+  </si>
+  <si>
+    <t>10.20.2.52</t>
   </si>
   <si>
     <t>Test</t>
@@ -642,6 +648,21 @@
   </si>
   <si>
     <t>snmp_trap:k</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>${ip}</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>10.20.5.1</t>
+  </si>
+  <si>
+    <t>public</t>
   </si>
   <si>
     <t>subsystem_parameters</t>
@@ -774,15 +795,69 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>0. はじめに</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>* Fujitsu ETERNUS ストレージの構成情報を採取します。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>* .\template\FJ_Eternus が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -806,14 +881,23 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>2. 検査シート編集</t>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* Fujitsu ETERNUS ストレージの構成情報を採取します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* .\template\FJ_Eternus が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「.\template\FJ_Eternus\ETERNUSチェックシート.xlsx」(本ファイル)を開きます。</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査するシナリオID Eternus を指定します。</t>
@@ -823,9 +907,15 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>対象サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Eternus を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -852,68 +942,9 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>検査対象ストレージのIPを入力します。</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Eternus を指定します。</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(未使用)</t>
-    <rPh sb="1" eb="4">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -943,30 +974,10 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>eternus1</t>
-  </si>
-  <si>
-    <t>10.20.2.52</t>
-  </si>
-  <si>
     <t>3. 設定ファイル(config.groovy)編集</t>
   </si>
   <si>
     <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad++ .\template\FJ_Eternus\config_eternus.groovy</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
@@ -976,23 +987,10 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>// Eternus 接続情報</t>
-  </si>
-  <si>
-    <t>account.Eternus.Test.user      = 'root'</t>
-  </si>
-  <si>
-    <t>account.Eternus.Test.password  = 'root'</t>
-  </si>
-  <si>
     <t>4. Getconfig インベントリ収集実行</t>
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\FJ_Eternus\config_eternus.groovy</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1040,15 +1038,43 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>notepad++ .\template\FJ_Eternus\config_eternus.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\FJ_Eternus\config_eternus.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>// Eternus 接続情報</t>
+  </si>
+  <si>
+    <t>account.Eternus.Test.user      = 'root'</t>
+  </si>
+  <si>
+    <t>account.Eternus.Test.password  = 'root'</t>
+  </si>
+  <si>
+    <t>_redmine:ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>型番</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>_redmine:ストレージ</t>
+    <t>(*)</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>net_subnet</t>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Eternus</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1280,6 +1306,68 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1314,37 +1402,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1358,39 +1415,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,11 +1441,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1462,6 +1485,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1480,74 +1506,62 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="7">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="8" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="パーセント" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="桁区切り" xfId="2" builtinId="6" customBuiltin="1"/>
     <cellStyle name="桁区切り [0.00]" xfId="1" builtinId="3" customBuiltin="1"/>
@@ -1555,8 +1569,7 @@
     <cellStyle name="通貨" xfId="4" builtinId="7" customBuiltin="1"/>
     <cellStyle name="通貨 [0.00]" xfId="3" builtinId="4" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 10" xfId="8"/>
-    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="標準 10" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1872,16 +1885,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A61" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="20" customWidth="1"/>
-    <col min="3" max="9" width="16.125" style="20" customWidth="1"/>
-    <col min="10" max="1020" width="9" style="20" customWidth="1"/>
-    <col min="1021" max="16384" width="9" style="20"/>
+    <col min="1" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="1020" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -1903,7 +1915,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1940,7 +1952,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
       <c r="B4" s="33" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1959,7 +1971,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -1994,7 +2006,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -2031,7 +2043,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="33" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2066,7 +2078,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -2103,7 +2115,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="33" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -2122,7 +2134,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2162,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -2183,7 +2195,7 @@
         <v>242</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -2201,10 +2213,10 @@
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -2222,10 +2234,10 @@
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -2243,10 +2255,10 @@
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
@@ -2264,10 +2276,10 @@
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -2285,10 +2297,10 @@
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -2322,7 +2334,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="33" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2358,15 +2370,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
@@ -2447,13 +2459,13 @@
         <v>16</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>16</v>
@@ -2657,7 +2669,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -2694,7 +2706,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
       <c r="B42" s="33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -2730,20 +2742,20 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
-      <c r="C44" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="23"/>
+      <c r="C44" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -2766,7 +2778,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
       <c r="B46" s="33" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -2802,75 +2814,75 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="26"/>
+      <c r="C48" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="33"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="32"/>
       <c r="O49" s="33"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
-      <c r="C50" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
+      <c r="C50" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="33"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
-      <c r="C51" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="32"/>
+      <c r="C51" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="O51" s="33"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
@@ -2892,7 +2904,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -2929,7 +2941,7 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
@@ -2965,20 +2977,20 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
-      <c r="C57" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="23"/>
+      <c r="C57" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="33"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
@@ -3073,20 +3085,20 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="23"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="33"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -3164,20 +3176,20 @@
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="23"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="33"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
@@ -3236,20 +3248,20 @@
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="23"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="33"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
@@ -3268,6 +3280,19 @@
       <c r="M73" s="33"/>
       <c r="N73" s="33"/>
       <c r="O73" s="33"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3287,9 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3300,15 +3323,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3612,6 +3635,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$76:$C$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3627,7 +3660,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3673,51 +3706,51 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>232</v>
+        <v>27</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -3732,64 +3765,64 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="39" t="s">
-        <v>276</v>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="39" t="s">
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3824,109 +3857,109 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -3962,33 +3995,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4038,7 +4071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -4080,1506 +4113,1506 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>219</v>
+        <v>51</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>219</v>
+        <v>51</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>220</v>
+        <v>51</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>220</v>
+        <v>51</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>209</v>
+        <v>51</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>209</v>
+        <v>51</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>208</v>
+        <v>51</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>208</v>
+        <v>51</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>229</v>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17" t="s">
-        <v>229</v>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>230</v>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17" t="s">
-        <v>230</v>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>222</v>
+        <v>51</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>222</v>
+        <v>51</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5615,7 +5650,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>16</v>
@@ -5632,22 +5667,28 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -5656,7 +5697,9 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -5665,7 +5708,9 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
